--- a/resource/TT.xlsx
+++ b/resource/TT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0599A4CD-7A2C-4967-BC98-59A6405EE857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C9B41-92CE-469F-8394-31113F84A60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,49 @@
   </si>
   <si>
     <t>T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码时间（时钟数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlowingBubbles</t>
+  </si>
+  <si>
+    <t>PeopleOnStreet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BQMall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KristenAndSara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassA～F 均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassA～E 均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,8 +248,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I28"/>
+  <dimension ref="B3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,9 +542,10 @@
     <col min="3" max="3" width="38.875" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -531,7 +576,7 @@
         <v>2368244</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -542,7 +587,7 @@
         <v>2443049</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -556,7 +601,7 @@
         <v>1219682</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -567,7 +612,7 @@
         <v>1408636</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -578,7 +623,7 @@
         <v>1521318</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -589,7 +634,7 @@
         <v>1162891</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -600,7 +645,7 @@
         <v>1407811</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -614,7 +659,7 @@
         <v>272877</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -625,7 +670,7 @@
         <v>284831</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -636,7 +681,7 @@
         <v>371311</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -647,7 +692,7 @@
         <v>282287</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -661,7 +706,7 @@
         <v>63526</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -671,8 +716,22 @@
       <c r="E16">
         <v>82664</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>3908445</v>
+      </c>
+      <c r="G16">
+        <v>88629</v>
+      </c>
+      <c r="H16">
+        <f>F16/D17</f>
+        <v>1.0288102511322073</v>
+      </c>
+      <c r="I16">
+        <f>(E17-G16)/G16</f>
+        <v>-4.9374358280021215E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -682,22 +741,8 @@
       <c r="E17">
         <v>84253</v>
       </c>
-      <c r="F17">
-        <v>3908445</v>
-      </c>
-      <c r="G17">
-        <v>88629</v>
-      </c>
-      <c r="H17">
-        <f>F17/D17</f>
-        <v>1.0288102511322073</v>
-      </c>
-      <c r="I17">
-        <f>(E17-G17)/G17</f>
-        <v>-4.9374358280021215E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -708,7 +753,7 @@
         <v>76253</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -722,7 +767,7 @@
         <v>462230</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>22</v>
       </c>
@@ -733,7 +778,7 @@
         <v>427134</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -743,8 +788,20 @@
       <c r="E21">
         <v>423097</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -754,8 +811,20 @@
       <c r="E22">
         <v>439043</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-0.1186</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.1883999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -765,8 +834,20 @@
       <c r="E23">
         <v>454844</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-8.14E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.2073</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -776,8 +857,20 @@
       <c r="E24">
         <v>399674</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-6.5299999999999997E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.2059</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -790,8 +883,20 @@
       <c r="E25">
         <v>263087</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-4.9399999999999999E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.1788000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -801,8 +906,20 @@
       <c r="E26">
         <v>374543</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-0.13039999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.1753</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -812,8 +929,20 @@
       <c r="E27">
         <v>455076</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-0.17150000000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -822,6 +951,30 @@
       </c>
       <c r="E28">
         <v>265009</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="1">
+        <f>AVERAGE(K22:K26)</f>
+        <v>-8.9019999999999988E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <f>AVERAGE(L22:L26)</f>
+        <v>1.1911399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="1">
+        <f>AVERAGE(K22:K27)</f>
+        <v>-0.10276666666666666</v>
+      </c>
+      <c r="L29" s="1">
+        <f>AVERAGE(L22:L27)</f>
+        <v>1.1834499999999999</v>
       </c>
     </row>
   </sheetData>
